--- a/data/pca/factorExposure/factorExposure_2017-12-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-12-18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.008760030403221982</v>
+        <v>0.01285939477468209</v>
       </c>
       <c r="C2">
-        <v>-0.0002534407941508148</v>
+        <v>0.03963820128756407</v>
       </c>
       <c r="D2">
-        <v>0.02400923960235632</v>
+        <v>-0.02863884616384577</v>
       </c>
       <c r="E2">
-        <v>0.06142387259684121</v>
+        <v>0.02781627550647992</v>
       </c>
       <c r="F2">
-        <v>0.005495533556245517</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.03346024838262254</v>
+      </c>
+      <c r="G2">
+        <v>0.01165743611064722</v>
+      </c>
+      <c r="H2">
+        <v>-0.01329843855354366</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.08173662175375787</v>
+        <v>0.06745846254422193</v>
       </c>
       <c r="C3">
-        <v>0.004957244306223873</v>
+        <v>0.07880823802527376</v>
       </c>
       <c r="D3">
-        <v>-0.04799711363600274</v>
+        <v>-0.0130300705182681</v>
       </c>
       <c r="E3">
-        <v>0.2420745973478206</v>
+        <v>0.07462373626523804</v>
       </c>
       <c r="F3">
-        <v>0.06286310868605889</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.0761835945146264</v>
+      </c>
+      <c r="G3">
+        <v>0.06507089673365589</v>
+      </c>
+      <c r="H3">
+        <v>-0.007013210301685698</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.03411287440566272</v>
+        <v>0.05753228730005697</v>
       </c>
       <c r="C4">
-        <v>-0.02214757619908927</v>
+        <v>0.06154140421251043</v>
       </c>
       <c r="D4">
-        <v>0.03434149602146523</v>
+        <v>-0.02136931397437077</v>
       </c>
       <c r="E4">
-        <v>0.03413345569967483</v>
+        <v>-0.002846191388388041</v>
       </c>
       <c r="F4">
-        <v>-0.0285516484016312</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.01886844379373418</v>
+      </c>
+      <c r="G4">
+        <v>0.03713051156191019</v>
+      </c>
+      <c r="H4">
+        <v>0.02990642170267694</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.05948815425398749</v>
+        <v>0.03145967310620351</v>
       </c>
       <c r="C6">
-        <v>-0.01482106024763678</v>
+        <v>0.05635395836081297</v>
       </c>
       <c r="D6">
-        <v>0.05005839299225592</v>
+        <v>-0.01600739801098258</v>
       </c>
       <c r="E6">
-        <v>0.02709791220055412</v>
+        <v>0.003123578978368972</v>
       </c>
       <c r="F6">
-        <v>-0.04907107423828697</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.01668013479709235</v>
+      </c>
+      <c r="G6">
+        <v>0.02086059960185497</v>
+      </c>
+      <c r="H6">
+        <v>0.00779102075484752</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02626247032926681</v>
+        <v>0.01866943812444046</v>
       </c>
       <c r="C7">
-        <v>-0.06924761904844373</v>
+        <v>0.03835379118056849</v>
       </c>
       <c r="D7">
-        <v>-0.009004318161787268</v>
+        <v>-0.01228852096707365</v>
       </c>
       <c r="E7">
-        <v>0.01004709094436882</v>
+        <v>-0.01577603542742229</v>
       </c>
       <c r="F7">
-        <v>0.01445310922270694</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.009813418848800725</v>
+      </c>
+      <c r="G7">
+        <v>0.07266612983490353</v>
+      </c>
+      <c r="H7">
+        <v>-0.001676470748223755</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01198659294673435</v>
+        <v>-0.005048107731475062</v>
       </c>
       <c r="C8">
-        <v>-0.009182136350399975</v>
+        <v>0.01316724689558572</v>
       </c>
       <c r="D8">
-        <v>0.01502411448157233</v>
+        <v>-0.003856665146849821</v>
       </c>
       <c r="E8">
-        <v>0.03349726764106482</v>
+        <v>0.01308856331717653</v>
       </c>
       <c r="F8">
-        <v>0.01390743950920927</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.02415692541814527</v>
+      </c>
+      <c r="G8">
+        <v>0.02540965661905515</v>
+      </c>
+      <c r="H8">
+        <v>0.01962294599467244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03057094464791308</v>
+        <v>0.02903205366215619</v>
       </c>
       <c r="C9">
-        <v>-0.0144093458293886</v>
+        <v>0.04250957864243957</v>
       </c>
       <c r="D9">
-        <v>0.02298744625631022</v>
+        <v>-0.01495345560367634</v>
       </c>
       <c r="E9">
-        <v>0.0529617640921869</v>
+        <v>-0.001271354389792754</v>
       </c>
       <c r="F9">
-        <v>-0.02760990602441038</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.01942547850338917</v>
+      </c>
+      <c r="G9">
+        <v>0.02831481144518587</v>
+      </c>
+      <c r="H9">
+        <v>-0.004630991915477292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.0884797749073363</v>
+        <v>0.08389338582225857</v>
       </c>
       <c r="C10">
-        <v>0.03698866703372529</v>
+        <v>-0.1838353290247754</v>
       </c>
       <c r="D10">
-        <v>-0.1556642345947924</v>
+        <v>0.01940723634822308</v>
       </c>
       <c r="E10">
-        <v>0.02118803468287044</v>
+        <v>0.01693224110737634</v>
       </c>
       <c r="F10">
-        <v>0.0003924699754540623</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.01315240544259528</v>
+      </c>
+      <c r="G10">
+        <v>0.03408012928315749</v>
+      </c>
+      <c r="H10">
+        <v>-0.02942618260526979</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.02597833689173861</v>
+        <v>0.03629646664817567</v>
       </c>
       <c r="C11">
-        <v>-0.003282890901291529</v>
+        <v>0.05358761311242203</v>
       </c>
       <c r="D11">
-        <v>0.04413574754008266</v>
+        <v>-0.0006645587887694886</v>
       </c>
       <c r="E11">
-        <v>0.01508175148161013</v>
+        <v>-0.006523332993900066</v>
       </c>
       <c r="F11">
-        <v>-0.02391040775752548</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.02735080851837934</v>
+      </c>
+      <c r="G11">
+        <v>0.008169907279925387</v>
+      </c>
+      <c r="H11">
+        <v>-0.0007598535187295749</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03232712174133313</v>
+        <v>0.03566144280227861</v>
       </c>
       <c r="C12">
-        <v>-0.01066548598021744</v>
+        <v>0.04540632629376103</v>
       </c>
       <c r="D12">
-        <v>0.04172615445503931</v>
+        <v>-0.00493000528163961</v>
       </c>
       <c r="E12">
-        <v>-0.008675596280574968</v>
+        <v>-0.01191888683721976</v>
       </c>
       <c r="F12">
-        <v>-0.002910932733427594</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.006728917306235111</v>
+      </c>
+      <c r="G12">
+        <v>0.01360971449736692</v>
+      </c>
+      <c r="H12">
+        <v>-0.00313241588689631</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.02025185561713446</v>
+        <v>0.01164803583766051</v>
       </c>
       <c r="C13">
-        <v>-0.0004597359126206499</v>
+        <v>0.03214179513811942</v>
       </c>
       <c r="D13">
-        <v>0.01395179167345234</v>
+        <v>-0.02442920712417067</v>
       </c>
       <c r="E13">
-        <v>0.04384423777866887</v>
+        <v>0.01848924355500986</v>
       </c>
       <c r="F13">
-        <v>-0.01458743168916154</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.03302258988014395</v>
+      </c>
+      <c r="G13">
+        <v>0.02439611640293815</v>
+      </c>
+      <c r="H13">
+        <v>0.008989488074684051</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01595514440614377</v>
+        <v>0.008678792898052609</v>
       </c>
       <c r="C14">
-        <v>-0.01551561623932672</v>
+        <v>0.02505350433205514</v>
       </c>
       <c r="D14">
-        <v>0.006954370855365087</v>
+        <v>-0.008118138051114034</v>
       </c>
       <c r="E14">
-        <v>0.018406643082231</v>
+        <v>-0.005738278205656057</v>
       </c>
       <c r="F14">
-        <v>0.02191660114821396</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.0009394721079187307</v>
+      </c>
+      <c r="G14">
+        <v>0.03153142708126896</v>
+      </c>
+      <c r="H14">
+        <v>0.01518634386520889</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02456059159251445</v>
+        <v>0.03226129385611833</v>
       </c>
       <c r="C16">
-        <v>-0.009070716057309107</v>
+        <v>0.04313948149212154</v>
       </c>
       <c r="D16">
-        <v>0.04074112954121775</v>
+        <v>-0.0004375315136065785</v>
       </c>
       <c r="E16">
-        <v>0.01582373970316585</v>
+        <v>-0.004014353119831067</v>
       </c>
       <c r="F16">
-        <v>-0.02838601964261606</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.0153318859803457</v>
+      </c>
+      <c r="G16">
+        <v>0.01295304067352584</v>
+      </c>
+      <c r="H16">
+        <v>0.001448174677103033</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.02421164104459507</v>
+        <v>0.02788852041269499</v>
       </c>
       <c r="C19">
-        <v>-0.006837928786191343</v>
+        <v>0.05546651831860721</v>
       </c>
       <c r="D19">
-        <v>0.03540183538416717</v>
+        <v>-0.01472007544684875</v>
       </c>
       <c r="E19">
-        <v>0.05141769684284674</v>
+        <v>0.03202680726086989</v>
       </c>
       <c r="F19">
-        <v>-0.03523294244053927</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.04379527324062349</v>
+      </c>
+      <c r="G19">
+        <v>0.03148934824326122</v>
+      </c>
+      <c r="H19">
+        <v>0.03487419751866137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.005680142009665691</v>
+        <v>0.01064836486361271</v>
       </c>
       <c r="C20">
-        <v>-0.00283862450707452</v>
+        <v>0.03494577038182742</v>
       </c>
       <c r="D20">
-        <v>-0.0001143986205311474</v>
+        <v>-0.01284098351431795</v>
       </c>
       <c r="E20">
-        <v>0.02967730764764147</v>
+        <v>0.01759624210882573</v>
       </c>
       <c r="F20">
-        <v>0.007287451970032379</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.0108333154960424</v>
+      </c>
+      <c r="G20">
+        <v>0.02382447517875987</v>
+      </c>
+      <c r="H20">
+        <v>0.009375504173000157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.03781782579097773</v>
+        <v>0.01211572902123156</v>
       </c>
       <c r="C21">
-        <v>-0.02590799415312527</v>
+        <v>0.03442104719343762</v>
       </c>
       <c r="D21">
-        <v>0.01634806445641449</v>
+        <v>-0.01568238315980279</v>
       </c>
       <c r="E21">
-        <v>0.02290977813952162</v>
+        <v>0.02289428391243164</v>
       </c>
       <c r="F21">
-        <v>-0.01931090305582796</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.02219098916334854</v>
+      </c>
+      <c r="G21">
+        <v>0.04656314502081291</v>
+      </c>
+      <c r="H21">
+        <v>0.01439711938925486</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,70 +1295,94 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02374916955835432</v>
+        <v>0.0265202885145358</v>
       </c>
       <c r="C24">
-        <v>-0.006185689188811463</v>
+        <v>0.04659088425663488</v>
       </c>
       <c r="D24">
-        <v>0.03492694395008379</v>
+        <v>-0.005678453218492347</v>
       </c>
       <c r="E24">
-        <v>0.01459463358524114</v>
+        <v>-0.009546575336702667</v>
       </c>
       <c r="F24">
-        <v>-0.02388199911694959</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.02274523654391396</v>
+      </c>
+      <c r="G24">
+        <v>0.01178745355010381</v>
+      </c>
+      <c r="H24">
+        <v>-0.004351365154666618</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03823664854035676</v>
+        <v>0.04434181282767904</v>
       </c>
       <c r="C25">
-        <v>-0.004586467746246136</v>
+        <v>0.05186925506451513</v>
       </c>
       <c r="D25">
-        <v>0.0367856148827159</v>
+        <v>-0.009468811166145352</v>
       </c>
       <c r="E25">
-        <v>0.0271947314281581</v>
+        <v>-0.01597569630132682</v>
       </c>
       <c r="F25">
-        <v>-0.02944780399606384</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.01864186689224846</v>
+      </c>
+      <c r="G25">
+        <v>0.01775013554367677</v>
+      </c>
+      <c r="H25">
+        <v>0.004140530010873883</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.003435603123005515</v>
+        <v>0.002905896212007628</v>
       </c>
       <c r="C26">
-        <v>-0.008254591649852514</v>
+        <v>0.008825501868705636</v>
       </c>
       <c r="D26">
-        <v>-0.00250633445177861</v>
+        <v>-0.02390311011696268</v>
       </c>
       <c r="E26">
-        <v>0.03107388877073907</v>
+        <v>0.003651522674413914</v>
       </c>
       <c r="F26">
-        <v>0.02013161007613408</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.008085553608481139</v>
+      </c>
+      <c r="G26">
+        <v>0.02310978728631051</v>
+      </c>
+      <c r="H26">
+        <v>0.007061354935166946</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1237,150 +1399,198 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1340623877615642</v>
+        <v>0.108931883312227</v>
       </c>
       <c r="C28">
-        <v>0.05277612328226103</v>
+        <v>-0.224538887555548</v>
       </c>
       <c r="D28">
-        <v>-0.2242573793602655</v>
+        <v>0.01086159330370691</v>
       </c>
       <c r="E28">
-        <v>0.008518538903460779</v>
+        <v>0.009907240816605004</v>
       </c>
       <c r="F28">
-        <v>0.008413709976487594</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.009754191127666347</v>
+      </c>
+      <c r="G28">
+        <v>0.04965372564491955</v>
+      </c>
+      <c r="H28">
+        <v>-0.01227630750905173</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01549882505618028</v>
+        <v>0.01276584832392571</v>
       </c>
       <c r="C29">
-        <v>-0.01160217224944494</v>
+        <v>0.0188587072930182</v>
       </c>
       <c r="D29">
-        <v>0.008106728951143437</v>
+        <v>-0.006896462427553169</v>
       </c>
       <c r="E29">
-        <v>0.01826542361291258</v>
+        <v>-0.003583866516781696</v>
       </c>
       <c r="F29">
-        <v>0.02106303529837744</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.005571390980620167</v>
+      </c>
+      <c r="G29">
+        <v>0.02495802420249976</v>
+      </c>
+      <c r="H29">
+        <v>0.0212512283126678</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.04549395872811317</v>
+        <v>0.03907977702966849</v>
       </c>
       <c r="C30">
-        <v>0.040552866794332</v>
+        <v>0.07363796325937028</v>
       </c>
       <c r="D30">
-        <v>0.07780049047287774</v>
+        <v>-0.02673268562659901</v>
       </c>
       <c r="E30">
-        <v>0.06530860915505354</v>
+        <v>0.01619985455908532</v>
       </c>
       <c r="F30">
-        <v>-0.006838571968707133</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.04495649398200523</v>
+      </c>
+      <c r="G30">
+        <v>-0.01207591745148809</v>
+      </c>
+      <c r="H30">
+        <v>0.008968472141102361</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04519029030957619</v>
+        <v>0.04221093100522675</v>
       </c>
       <c r="C31">
-        <v>-0.01746077859526968</v>
+        <v>0.027535973412621</v>
       </c>
       <c r="D31">
-        <v>0.02275966349676371</v>
+        <v>-0.002368661619258055</v>
       </c>
       <c r="E31">
-        <v>-0.00311232677377806</v>
+        <v>-0.01766591337994008</v>
       </c>
       <c r="F31">
-        <v>0.01481039823447111</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.02841601247631453</v>
+      </c>
+      <c r="G31">
+        <v>0.02452537114819689</v>
+      </c>
+      <c r="H31">
+        <v>0.002306264691317096</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.001868318499369422</v>
+        <v>0.007981301531603653</v>
       </c>
       <c r="C32">
-        <v>-0.03242564190706505</v>
+        <v>0.03611077539395256</v>
       </c>
       <c r="D32">
-        <v>0.01990181934695519</v>
+        <v>0.005187545473400162</v>
       </c>
       <c r="E32">
-        <v>0.01587867893072559</v>
+        <v>0.01441547362057457</v>
       </c>
       <c r="F32">
-        <v>-0.007708963884055741</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.0758378506811106</v>
+      </c>
+      <c r="G32">
+        <v>0.05225996362518996</v>
+      </c>
+      <c r="H32">
+        <v>0.06778153909103182</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.03371960317695419</v>
+        <v>0.02995645672848914</v>
       </c>
       <c r="C33">
-        <v>0.01386333826277872</v>
+        <v>0.05197357049240503</v>
       </c>
       <c r="D33">
-        <v>0.03956597038654202</v>
+        <v>-0.01358070699613368</v>
       </c>
       <c r="E33">
-        <v>0.04067460619624017</v>
+        <v>0.01497615729389319</v>
       </c>
       <c r="F33">
-        <v>0.01754857820587794</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.02570339945437509</v>
+      </c>
+      <c r="G33">
+        <v>0.01474603755882629</v>
+      </c>
+      <c r="H33">
+        <v>-0.01790598968585464</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.02667573574489804</v>
+        <v>0.04697175627741221</v>
       </c>
       <c r="C34">
-        <v>-0.0180655375461078</v>
+        <v>0.05300521805804657</v>
       </c>
       <c r="D34">
-        <v>0.04144346035010686</v>
+        <v>0.006755761235563764</v>
       </c>
       <c r="E34">
-        <v>0.01351768163478522</v>
+        <v>-0.0163285872335316</v>
       </c>
       <c r="F34">
-        <v>-0.02543004455363424</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.02321910574770055</v>
+      </c>
+      <c r="G34">
+        <v>0.02194197220164173</v>
+      </c>
+      <c r="H34">
+        <v>-0.001623348379422431</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01837670294602602</v>
+        <v>0.01043591927214498</v>
       </c>
       <c r="C36">
-        <v>-0.003688311406312727</v>
+        <v>0.004685323097560639</v>
       </c>
       <c r="D36">
-        <v>0.001161939971941704</v>
+        <v>-0.01090244015638052</v>
       </c>
       <c r="E36">
-        <v>0.01541794573682368</v>
+        <v>-0.0008532689906942896</v>
       </c>
       <c r="F36">
-        <v>0.00109788947737313</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.0006472418988510304</v>
+      </c>
+      <c r="G36">
+        <v>0.01513593370777515</v>
+      </c>
+      <c r="H36">
+        <v>-0.001612166699908289</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.02215486521072234</v>
+        <v>0.03151977394360795</v>
       </c>
       <c r="C38">
-        <v>-0.002530105419540837</v>
+        <v>0.0228095066713612</v>
       </c>
       <c r="D38">
-        <v>0.01658432761838085</v>
+        <v>0.008646779866285051</v>
       </c>
       <c r="E38">
-        <v>0.03966684884709815</v>
+        <v>-0.004839214921256635</v>
       </c>
       <c r="F38">
-        <v>-0.001593302543431129</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.008412068763849761</v>
+      </c>
+      <c r="G38">
+        <v>0.02133901830798206</v>
+      </c>
+      <c r="H38">
+        <v>0.006124801480557328</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.01788436939427173</v>
+        <v>0.0312676347532326</v>
       </c>
       <c r="C39">
-        <v>-0.01737800757153597</v>
+        <v>0.08348574924384923</v>
       </c>
       <c r="D39">
-        <v>0.06425902282798311</v>
+        <v>-0.01119345236201361</v>
       </c>
       <c r="E39">
-        <v>0.04579929363338962</v>
+        <v>0.006026327564028626</v>
       </c>
       <c r="F39">
-        <v>-0.03730469428030481</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.04161476141812593</v>
+      </c>
+      <c r="G39">
+        <v>0.01374245844018388</v>
+      </c>
+      <c r="H39">
+        <v>-0.01344507192690862</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.02756155437194308</v>
+        <v>0.02017443943526651</v>
       </c>
       <c r="C40">
-        <v>-0.004229139545026771</v>
+        <v>0.03159626386399763</v>
       </c>
       <c r="D40">
-        <v>0.04026943814269062</v>
+        <v>-0.01255184819382694</v>
       </c>
       <c r="E40">
-        <v>0.03502344044282538</v>
+        <v>0.01075897594173898</v>
       </c>
       <c r="F40">
-        <v>-0.03849486421312135</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.02458534321440601</v>
+      </c>
+      <c r="G40">
+        <v>0.01520684707903217</v>
+      </c>
+      <c r="H40">
+        <v>-0.0005503857206014829</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.01228027109806026</v>
+        <v>0.01069184103012036</v>
       </c>
       <c r="C41">
-        <v>0.001341950318614703</v>
+        <v>-0.002750191608348578</v>
       </c>
       <c r="D41">
-        <v>-0.009180336812246523</v>
+        <v>-0.003113994393627115</v>
       </c>
       <c r="E41">
-        <v>0.004283306877205514</v>
+        <v>-0.008475190759133956</v>
       </c>
       <c r="F41">
-        <v>0.004351851472519613</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.0006051938050113062</v>
+      </c>
+      <c r="G41">
+        <v>0.01018568878123923</v>
+      </c>
+      <c r="H41">
+        <v>0.001931056446022863</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1421566329027451</v>
+        <v>0.04143248939426043</v>
       </c>
       <c r="C42">
-        <v>0.0857249722825774</v>
+        <v>0.05858795872316787</v>
       </c>
       <c r="D42">
-        <v>0.157072715642854</v>
+        <v>-0.1036629797221837</v>
       </c>
       <c r="E42">
-        <v>0.1883252128082813</v>
+        <v>0.08014152262371305</v>
       </c>
       <c r="F42">
-        <v>0.09501897635443433</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.1291305571474725</v>
+      </c>
+      <c r="G42">
+        <v>-0.231279464526847</v>
+      </c>
+      <c r="H42">
+        <v>-0.9244182922689126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.01803644493648196</v>
+        <v>0.02671808318964205</v>
       </c>
       <c r="C43">
-        <v>0.0025222171548564</v>
+        <v>0.006359681568259255</v>
       </c>
       <c r="D43">
-        <v>-0.005373420778173092</v>
+        <v>-0.003042966686910198</v>
       </c>
       <c r="E43">
-        <v>0.008049449317374398</v>
+        <v>-0.005571473849500744</v>
       </c>
       <c r="F43">
-        <v>0.009675147453185857</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.003128150102992009</v>
+      </c>
+      <c r="G43">
+        <v>0.0124759556323457</v>
+      </c>
+      <c r="H43">
+        <v>-0.000459471693586412</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.0101157749549892</v>
+        <v>0.01695144881070943</v>
       </c>
       <c r="C44">
-        <v>-0.01151062743575326</v>
+        <v>0.04870433575858461</v>
       </c>
       <c r="D44">
-        <v>0.01690471826483241</v>
+        <v>-0.006437675775369501</v>
       </c>
       <c r="E44">
-        <v>0.07171445365436643</v>
+        <v>0.01704144214977832</v>
       </c>
       <c r="F44">
-        <v>-0.003768366156510562</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.02575026671390977</v>
+      </c>
+      <c r="G44">
+        <v>0.03024287689165995</v>
+      </c>
+      <c r="H44">
+        <v>-0.01502123013680038</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.007974449637382969</v>
+        <v>0.001240863744060598</v>
       </c>
       <c r="C46">
-        <v>-0.006941873542931295</v>
+        <v>0.0157144436447781</v>
       </c>
       <c r="D46">
-        <v>0.02495489949757782</v>
+        <v>-0.01139800572840133</v>
       </c>
       <c r="E46">
-        <v>0.03796599573353177</v>
+        <v>-0.006009364298980572</v>
       </c>
       <c r="F46">
-        <v>0.02412967795792001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.008119921080393009</v>
+      </c>
+      <c r="G46">
+        <v>0.0189595038490553</v>
+      </c>
+      <c r="H46">
+        <v>0.02198608433790325</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.06899927285318665</v>
+        <v>0.07221873782966874</v>
       </c>
       <c r="C47">
-        <v>-0.006263680876607518</v>
+        <v>0.06008999967308673</v>
       </c>
       <c r="D47">
-        <v>0.03690950214701475</v>
+        <v>0.005736616528877531</v>
       </c>
       <c r="E47">
-        <v>-0.03718388397099148</v>
+        <v>-0.02110510158691761</v>
       </c>
       <c r="F47">
-        <v>0.03982473338698718</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.06009488050409677</v>
+      </c>
+      <c r="G47">
+        <v>0.01453386373422475</v>
+      </c>
+      <c r="H47">
+        <v>0.004312471840568758</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.0280568532288314</v>
+        <v>0.0154024263943772</v>
       </c>
       <c r="C48">
-        <v>-0.00476944312833385</v>
+        <v>0.01038539476448906</v>
       </c>
       <c r="D48">
-        <v>0.005895757103334934</v>
+        <v>-0.0007540016238684833</v>
       </c>
       <c r="E48">
-        <v>0.01635830149550422</v>
+        <v>-0.006847083575940109</v>
       </c>
       <c r="F48">
-        <v>-0.001328403286406887</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.01300761524355548</v>
+      </c>
+      <c r="G48">
+        <v>0.01735652013608822</v>
+      </c>
+      <c r="H48">
+        <v>0.001350529461124291</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.07071428486011855</v>
+        <v>0.0761930975844082</v>
       </c>
       <c r="C50">
-        <v>-0.03710515179246073</v>
+        <v>0.0612144551732572</v>
       </c>
       <c r="D50">
-        <v>0.04732204416212211</v>
+        <v>0.004614248936304413</v>
       </c>
       <c r="E50">
-        <v>-0.009926947225832941</v>
+        <v>-0.02116088985635835</v>
       </c>
       <c r="F50">
-        <v>0.06467815322380271</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.05803613201887953</v>
+      </c>
+      <c r="G50">
+        <v>0.03848787683442131</v>
+      </c>
+      <c r="H50">
+        <v>0.006347674789526239</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01622886630864926</v>
+        <v>0.01762742617609104</v>
       </c>
       <c r="C51">
-        <v>-0.005724204828452322</v>
+        <v>0.02927558678467647</v>
       </c>
       <c r="D51">
-        <v>-0.01545044930327442</v>
+        <v>-0.008516215710371979</v>
       </c>
       <c r="E51">
-        <v>0.05866485068493039</v>
+        <v>0.007913280472945546</v>
       </c>
       <c r="F51">
-        <v>-0.006862833779711306</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.0360281091826289</v>
+      </c>
+      <c r="G51">
+        <v>0.03710148745701351</v>
+      </c>
+      <c r="H51">
+        <v>0.003823679257067062</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.09029673939189817</v>
+        <v>0.09831096911931018</v>
       </c>
       <c r="C53">
-        <v>-0.02620574713328206</v>
+        <v>0.07468919120566467</v>
       </c>
       <c r="D53">
-        <v>0.06552900120035353</v>
+        <v>0.006899993493556814</v>
       </c>
       <c r="E53">
-        <v>-0.06027943435485816</v>
+        <v>-0.04118582004660684</v>
       </c>
       <c r="F53">
-        <v>0.02777548619659288</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.06786227531581895</v>
+      </c>
+      <c r="G53">
+        <v>0.01596044564569597</v>
+      </c>
+      <c r="H53">
+        <v>-0.003854270116245257</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02807250272764764</v>
+        <v>0.02834817225416816</v>
       </c>
       <c r="C54">
-        <v>-0.009279609581339353</v>
+        <v>0.003618050524240758</v>
       </c>
       <c r="D54">
-        <v>0.0007178431765870412</v>
+        <v>0.004637518974058577</v>
       </c>
       <c r="E54">
-        <v>0.001869099017506149</v>
+        <v>0.0005578556518145836</v>
       </c>
       <c r="F54">
-        <v>0.007114149707972293</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.003509214714317453</v>
+      </c>
+      <c r="G54">
+        <v>0.02628688269912461</v>
+      </c>
+      <c r="H54">
+        <v>0.01840302643302823</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.06505393208204299</v>
+        <v>0.07368201865121185</v>
       </c>
       <c r="C55">
-        <v>-0.01788726180774722</v>
+        <v>0.06761466845939408</v>
       </c>
       <c r="D55">
-        <v>0.07691334313680533</v>
+        <v>0.005857614547344727</v>
       </c>
       <c r="E55">
-        <v>-0.04061977601432726</v>
+        <v>-0.03064128693346458</v>
       </c>
       <c r="F55">
-        <v>0.04863848209002815</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.06282223186466988</v>
+      </c>
+      <c r="G55">
+        <v>0.004294933526648449</v>
+      </c>
+      <c r="H55">
+        <v>0.005119789634758078</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1275121701956641</v>
+        <v>0.1479516347190153</v>
       </c>
       <c r="C56">
-        <v>-0.02411647878910577</v>
+        <v>0.0958235695300805</v>
       </c>
       <c r="D56">
-        <v>0.09501147369190743</v>
+        <v>0.01606213761727242</v>
       </c>
       <c r="E56">
-        <v>-0.09248010222518867</v>
+        <v>-0.04385295512453276</v>
       </c>
       <c r="F56">
-        <v>0.02194298125624736</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.1053373231017886</v>
+      </c>
+      <c r="G56">
+        <v>-0.006134203219082103</v>
+      </c>
+      <c r="H56">
+        <v>-0.003214364786005966</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.03791892283319789</v>
+        <v>0.01566520129571608</v>
       </c>
       <c r="C57">
-        <v>0.002951510721405343</v>
+        <v>0.01117221320959755</v>
       </c>
       <c r="D57">
-        <v>0.0252394895925302</v>
+        <v>-0.02354519147035529</v>
       </c>
       <c r="E57">
-        <v>0.04289729354155493</v>
+        <v>0.03169167515357286</v>
       </c>
       <c r="F57">
-        <v>-0.01363202519982588</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.01655692711699962</v>
+      </c>
+      <c r="G57">
+        <v>0.02224631580336786</v>
+      </c>
+      <c r="H57">
+        <v>-0.005813463012499428</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1734822631716193</v>
+        <v>0.07226147825990709</v>
       </c>
       <c r="C58">
-        <v>0.111677565524484</v>
+        <v>0.08082053132632679</v>
       </c>
       <c r="D58">
-        <v>0.1714068967175192</v>
+        <v>-0.02081097740996301</v>
       </c>
       <c r="E58">
-        <v>0.5906886742955502</v>
+        <v>0.9452872011484962</v>
       </c>
       <c r="F58">
-        <v>0.5763415748787748</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.2225529743217302</v>
+      </c>
+      <c r="G58">
+        <v>0.06532203076809237</v>
+      </c>
+      <c r="H58">
+        <v>0.101927630260549</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1391731506547366</v>
+        <v>0.1492872682899214</v>
       </c>
       <c r="C59">
-        <v>0.07060305319104622</v>
+        <v>-0.2154578232013549</v>
       </c>
       <c r="D59">
-        <v>-0.1912739587874428</v>
+        <v>0.01848194446926424</v>
       </c>
       <c r="E59">
-        <v>0.04006444413897103</v>
+        <v>0.01571727653136719</v>
       </c>
       <c r="F59">
-        <v>-0.05570271589716366</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.01347144491225132</v>
+      </c>
+      <c r="G59">
+        <v>0.01764425812960137</v>
+      </c>
+      <c r="H59">
+        <v>0.002169620695490318</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2107528135988685</v>
+        <v>0.2942296969980262</v>
       </c>
       <c r="C60">
-        <v>0.03704858431062107</v>
+        <v>0.08215065320673932</v>
       </c>
       <c r="D60">
-        <v>0.03171506279773522</v>
+        <v>-0.004635881338063637</v>
       </c>
       <c r="E60">
-        <v>0.1610932437242792</v>
+        <v>0.02082432215308821</v>
       </c>
       <c r="F60">
-        <v>-0.3953217134169421</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.3931095053149735</v>
+      </c>
+      <c r="G60">
+        <v>-0.0458363712540722</v>
+      </c>
+      <c r="H60">
+        <v>0.06259462062095746</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.03142836669416444</v>
+        <v>0.03212326514747037</v>
       </c>
       <c r="C61">
-        <v>-0.01011575754459351</v>
+        <v>0.06388602440809693</v>
       </c>
       <c r="D61">
-        <v>0.05507562069663112</v>
+        <v>-0.004519111026143477</v>
       </c>
       <c r="E61">
-        <v>0.02844782310226323</v>
+        <v>0.0009021898159700325</v>
       </c>
       <c r="F61">
-        <v>-0.05136999865106913</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.02776070003852225</v>
+      </c>
+      <c r="G61">
+        <v>0.01551547331289544</v>
+      </c>
+      <c r="H61">
+        <v>0.001877501755547808</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01763311804319919</v>
+        <v>0.01385286919811058</v>
       </c>
       <c r="C63">
-        <v>-0.009434710622925507</v>
+        <v>0.02781289828971048</v>
       </c>
       <c r="D63">
-        <v>0.02140825552727179</v>
+        <v>-0.007347107713265228</v>
       </c>
       <c r="E63">
-        <v>0.002610577839476051</v>
+        <v>-0.01657944407633142</v>
       </c>
       <c r="F63">
-        <v>0.02405886854619778</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.006453138287091909</v>
+      </c>
+      <c r="G63">
+        <v>0.02071840730866883</v>
+      </c>
+      <c r="H63">
+        <v>0.004458414272723501</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.0468891555713843</v>
+        <v>0.04683199394760088</v>
       </c>
       <c r="C64">
-        <v>-0.009323162918604886</v>
+        <v>0.03537660417369411</v>
       </c>
       <c r="D64">
-        <v>0.04090840156006011</v>
+        <v>-0.003933333545666912</v>
       </c>
       <c r="E64">
-        <v>0.01550046139093624</v>
+        <v>-0.01650918437978259</v>
       </c>
       <c r="F64">
-        <v>-0.01570962809267329</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.01468314778106562</v>
+      </c>
+      <c r="G64">
+        <v>0.0125728940791148</v>
+      </c>
+      <c r="H64">
+        <v>-0.03440887319860916</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.06749780890317693</v>
+        <v>0.07797294470772541</v>
       </c>
       <c r="C65">
-        <v>-0.01512175543312722</v>
+        <v>0.06643904742870016</v>
       </c>
       <c r="D65">
-        <v>0.0534418619354851</v>
+        <v>-0.01439849805318621</v>
       </c>
       <c r="E65">
-        <v>0.02264474139391196</v>
+        <v>-0.002908481086262226</v>
       </c>
       <c r="F65">
-        <v>-0.05629702676944872</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.03859930424170827</v>
+      </c>
+      <c r="G65">
+        <v>0.009309682011425055</v>
+      </c>
+      <c r="H65">
+        <v>0.01507168360167219</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03955969843326177</v>
+        <v>0.05294618661250099</v>
       </c>
       <c r="C66">
-        <v>-0.00182523709325574</v>
+        <v>0.1179031768901746</v>
       </c>
       <c r="D66">
-        <v>0.08555198270340633</v>
+        <v>-0.01019179836837876</v>
       </c>
       <c r="E66">
-        <v>0.02615483000834502</v>
+        <v>0.006259286434974667</v>
       </c>
       <c r="F66">
-        <v>-0.04776798487362495</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.04882386620473291</v>
+      </c>
+      <c r="G66">
+        <v>0.002676201357302356</v>
+      </c>
+      <c r="H66">
+        <v>0.009180390582309418</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.03849170418182338</v>
+        <v>0.05767111944217582</v>
       </c>
       <c r="C67">
-        <v>-0.0003405424610805023</v>
+        <v>0.02475431833373502</v>
       </c>
       <c r="D67">
-        <v>0.01699577766542652</v>
+        <v>0.007769433388011338</v>
       </c>
       <c r="E67">
-        <v>0.01920077295080971</v>
+        <v>-0.01060692890109322</v>
       </c>
       <c r="F67">
-        <v>-0.01073805881032726</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.006651025501101466</v>
+      </c>
+      <c r="G67">
+        <v>0.02025789655378498</v>
+      </c>
+      <c r="H67">
+        <v>0.01073758265078446</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1215655081891853</v>
+        <v>0.1189899363477918</v>
       </c>
       <c r="C68">
-        <v>0.06930519056277905</v>
+        <v>-0.2688899960668706</v>
       </c>
       <c r="D68">
-        <v>-0.2109155518966737</v>
+        <v>-0.0003948568003452465</v>
       </c>
       <c r="E68">
-        <v>0.00486145389006123</v>
+        <v>0.01526821840992956</v>
       </c>
       <c r="F68">
-        <v>-0.0051807224695141</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.01901972086932271</v>
+      </c>
+      <c r="G68">
+        <v>0.01799507480186865</v>
+      </c>
+      <c r="H68">
+        <v>-0.01598587024697197</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05193294395032646</v>
+        <v>0.07511954963745267</v>
       </c>
       <c r="C69">
-        <v>-0.00966014072771184</v>
+        <v>0.05757428585146535</v>
       </c>
       <c r="D69">
-        <v>0.04187234972959015</v>
+        <v>0.01037773412671487</v>
       </c>
       <c r="E69">
-        <v>-0.02823828084589058</v>
+        <v>-0.0367425401888025</v>
       </c>
       <c r="F69">
-        <v>0.01264384840036532</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.03649957229596378</v>
+      </c>
+      <c r="G69">
+        <v>0.01127417346583199</v>
+      </c>
+      <c r="H69">
+        <v>0.01514276505494257</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.112214072109798</v>
+        <v>0.1212917855489877</v>
       </c>
       <c r="C71">
-        <v>0.05472298472495013</v>
+        <v>-0.2258932724356744</v>
       </c>
       <c r="D71">
-        <v>-0.207656035282646</v>
+        <v>0.008693308135946711</v>
       </c>
       <c r="E71">
-        <v>0.02090760813609058</v>
+        <v>0.02075859587988222</v>
       </c>
       <c r="F71">
-        <v>0.03691492766556147</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.02330656258332876</v>
+      </c>
+      <c r="G71">
+        <v>0.03112245138299334</v>
+      </c>
+      <c r="H71">
+        <v>-0.02962723615782116</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.124181475005511</v>
+        <v>0.08332564813944764</v>
       </c>
       <c r="C72">
-        <v>-0.01042752080385853</v>
+        <v>0.0822534716188715</v>
       </c>
       <c r="D72">
-        <v>0.1404158677011078</v>
+        <v>0.009926185381704639</v>
       </c>
       <c r="E72">
-        <v>0.1078392185100186</v>
+        <v>-0.02118774604395128</v>
       </c>
       <c r="F72">
-        <v>-0.1775257274626228</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.03350910317327708</v>
+      </c>
+      <c r="G72">
+        <v>-0.00894954347501648</v>
+      </c>
+      <c r="H72">
+        <v>0.007295096071195109</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.260622754048345</v>
+        <v>0.3979448778975841</v>
       </c>
       <c r="C73">
-        <v>0.09218996665395937</v>
+        <v>0.0961426224800421</v>
       </c>
       <c r="D73">
-        <v>0.07848556320686174</v>
+        <v>-0.008719501630212876</v>
       </c>
       <c r="E73">
-        <v>0.2367411596850509</v>
+        <v>0.07232047400400046</v>
       </c>
       <c r="F73">
-        <v>-0.4028357032223714</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.531488479949658</v>
+      </c>
+      <c r="G73">
+        <v>-0.09108497917186067</v>
+      </c>
+      <c r="H73">
+        <v>-0.05876843450034303</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1163782239101404</v>
+        <v>0.1173315775321159</v>
       </c>
       <c r="C74">
-        <v>-0.01437301128703794</v>
+        <v>0.1143945843409363</v>
       </c>
       <c r="D74">
-        <v>0.09781071902579354</v>
+        <v>0.01146817662114142</v>
       </c>
       <c r="E74">
-        <v>-0.07944984351644049</v>
+        <v>-0.04146926099938165</v>
       </c>
       <c r="F74">
-        <v>0.009127146335551034</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.07296049753024901</v>
+      </c>
+      <c r="G74">
+        <v>0.007064081261828516</v>
+      </c>
+      <c r="H74">
+        <v>-0.001092515814373618</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.239861262494671</v>
+        <v>0.2593901964675071</v>
       </c>
       <c r="C75">
-        <v>-0.0171784446723679</v>
+        <v>0.137234396511531</v>
       </c>
       <c r="D75">
-        <v>0.1537850794720432</v>
+        <v>0.03309009824717323</v>
       </c>
       <c r="E75">
-        <v>-0.1609857230881581</v>
+        <v>-0.06320879327916608</v>
       </c>
       <c r="F75">
-        <v>0.02504352004790942</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.2214270692544987</v>
+      </c>
+      <c r="G75">
+        <v>-0.03535168435868002</v>
+      </c>
+      <c r="H75">
+        <v>0.0007000196409178825</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.226444873187367</v>
+        <v>0.1483227552426003</v>
       </c>
       <c r="C76">
-        <v>-0.03932363203970536</v>
+        <v>0.1187459126067329</v>
       </c>
       <c r="D76">
-        <v>0.1566464986396883</v>
+        <v>0.02470518768087501</v>
       </c>
       <c r="E76">
-        <v>-0.2302982946245495</v>
+        <v>-0.06995007271708306</v>
       </c>
       <c r="F76">
-        <v>0.04597411987125923</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.1466815029342896</v>
+      </c>
+      <c r="G76">
+        <v>-0.003198875043816444</v>
+      </c>
+      <c r="H76">
+        <v>0.009685946647173583</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.04193701128331945</v>
+        <v>0.05685333477825407</v>
       </c>
       <c r="C77">
-        <v>-0.01039975526368629</v>
+        <v>0.06240954301914635</v>
       </c>
       <c r="D77">
-        <v>0.05409102576598742</v>
+        <v>-0.01156879360401881</v>
       </c>
       <c r="E77">
-        <v>0.0763956451620377</v>
+        <v>0.03113556258405618</v>
       </c>
       <c r="F77">
-        <v>0.1113155027100847</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.006834037269947279</v>
+      </c>
+      <c r="G77">
+        <v>0.03421697893787982</v>
+      </c>
+      <c r="H77">
+        <v>-0.02024386876657577</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03080522549296884</v>
+        <v>0.0442262933560593</v>
       </c>
       <c r="C78">
-        <v>-0.01310166084425866</v>
+        <v>0.05401832752174517</v>
       </c>
       <c r="D78">
-        <v>0.04523797381761464</v>
+        <v>-0.004693307405564484</v>
       </c>
       <c r="E78">
-        <v>0.06419266245450526</v>
+        <v>0.01604781019475036</v>
       </c>
       <c r="F78">
-        <v>-0.03152808356312285</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.04532075704569485</v>
+      </c>
+      <c r="G78">
+        <v>0.02539130299928109</v>
+      </c>
+      <c r="H78">
+        <v>0.01031567040663733</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,90 +2751,120 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1937793894856195</v>
+        <v>0.06934266103750818</v>
       </c>
       <c r="C80">
-        <v>-0.9274925286088185</v>
+        <v>0.08008395251352188</v>
       </c>
       <c r="D80">
-        <v>-0.222569953537614</v>
+        <v>-0.01204409283577464</v>
       </c>
       <c r="E80">
-        <v>0.1308025769527217</v>
+        <v>-0.07280090492041086</v>
       </c>
       <c r="F80">
-        <v>0.02118394017136293</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.01842918983726648</v>
+      </c>
+      <c r="G80">
+        <v>0.9241768494514521</v>
+      </c>
+      <c r="H80">
+        <v>-0.219840761430369</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1844732775365821</v>
+        <v>0.1503102376027202</v>
       </c>
       <c r="C81">
-        <v>-0.02373899529034851</v>
+        <v>0.08826672386680175</v>
       </c>
       <c r="D81">
-        <v>0.1122299534481499</v>
+        <v>0.01863636280905313</v>
       </c>
       <c r="E81">
-        <v>-0.1250809178922959</v>
+        <v>-0.04471964018326519</v>
       </c>
       <c r="F81">
-        <v>0.06537910355401901</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.1394321699522437</v>
+      </c>
+      <c r="G81">
+        <v>0.004662511252404981</v>
+      </c>
+      <c r="H81">
+        <v>0.006666281136965061</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.03848203028712509</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.02954521555955142</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.002133924284170015</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>-0.0205231745792066</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>-0.00300919512333963</v>
+      </c>
+      <c r="G82">
+        <v>-0.0009279391609960992</v>
+      </c>
+      <c r="H82">
+        <v>0.01650550641680304</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.03447143820789371</v>
+        <v>0.03014630044996541</v>
       </c>
       <c r="C83">
-        <v>0.00271274632029327</v>
+        <v>0.01990396295373966</v>
       </c>
       <c r="D83">
-        <v>0.01435582794503108</v>
+        <v>-0.004649068645405143</v>
       </c>
       <c r="E83">
-        <v>0.03951101596186061</v>
+        <v>0.02315249996228927</v>
       </c>
       <c r="F83">
-        <v>0.01508007816113201</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.02336416730531185</v>
+      </c>
+      <c r="G83">
+        <v>0.02511683416338262</v>
+      </c>
+      <c r="H83">
+        <v>0.01014525878487903</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2224453258734181</v>
+        <v>0.2464541195158075</v>
       </c>
       <c r="C85">
-        <v>-0.01474145012618305</v>
+        <v>0.1454248696546915</v>
       </c>
       <c r="D85">
-        <v>0.1830018569711738</v>
+        <v>0.02261540459443118</v>
       </c>
       <c r="E85">
-        <v>-0.1782432689706641</v>
+        <v>-0.106996196570966</v>
       </c>
       <c r="F85">
-        <v>0.04127999194230401</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.208743207155202</v>
+      </c>
+      <c r="G85">
+        <v>-0.06799434592539672</v>
+      </c>
+      <c r="H85">
+        <v>-0.0008400649409084357</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01541366738533436</v>
+        <v>0.01020259309595109</v>
       </c>
       <c r="C86">
-        <v>-0.009310233992107323</v>
+        <v>0.0234725140450937</v>
       </c>
       <c r="D86">
-        <v>0.02438838382630867</v>
+        <v>-0.009288547106564592</v>
       </c>
       <c r="E86">
-        <v>0.05433229722616555</v>
+        <v>0.01675018249701112</v>
       </c>
       <c r="F86">
-        <v>0.02383440339022088</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.02090865667443578</v>
+      </c>
+      <c r="G86">
+        <v>0.04764796453291029</v>
+      </c>
+      <c r="H86">
+        <v>-0.03223733265912537</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02917098373288282</v>
+        <v>0.01851170307256857</v>
       </c>
       <c r="C87">
-        <v>-0.009349855947681925</v>
+        <v>0.02663863052254019</v>
       </c>
       <c r="D87">
-        <v>0.02914200878536986</v>
+        <v>-0.01094782034394543</v>
       </c>
       <c r="E87">
-        <v>0.10415871887899</v>
+        <v>0.07748372781301012</v>
       </c>
       <c r="F87">
-        <v>-0.03284537359924231</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.06181609300208781</v>
+      </c>
+      <c r="G87">
+        <v>0.038577694103784</v>
+      </c>
+      <c r="H87">
+        <v>-0.0114241825034383</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05021263270664195</v>
+        <v>0.08425061269662332</v>
       </c>
       <c r="C88">
-        <v>0.006533492234546878</v>
+        <v>0.05258509543610946</v>
       </c>
       <c r="D88">
-        <v>0.009945169391820975</v>
+        <v>-0.02026911776279275</v>
       </c>
       <c r="E88">
-        <v>-0.003143139361783324</v>
+        <v>-0.02148929353156945</v>
       </c>
       <c r="F88">
-        <v>-0.02400849327795183</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.00666930615291522</v>
+      </c>
+      <c r="G88">
+        <v>0.01910610067457951</v>
+      </c>
+      <c r="H88">
+        <v>0.0207382779280444</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.2214268792225378</v>
+        <v>0.2170681327085451</v>
       </c>
       <c r="C89">
-        <v>0.1318981636586085</v>
+        <v>-0.3784335528206083</v>
       </c>
       <c r="D89">
-        <v>-0.3529326477600279</v>
+        <v>0.01188254152596828</v>
       </c>
       <c r="E89">
-        <v>-0.01199692922509089</v>
+        <v>-0.006994101308847897</v>
       </c>
       <c r="F89">
-        <v>0.007590747645906966</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.02613081630567326</v>
+      </c>
+      <c r="G89">
+        <v>0.02679455701398855</v>
+      </c>
+      <c r="H89">
+        <v>0.004531704724856694</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1383968333216813</v>
+        <v>0.1780920244192611</v>
       </c>
       <c r="C90">
-        <v>0.1146406897451559</v>
+        <v>-0.3392803936511065</v>
       </c>
       <c r="D90">
-        <v>-0.3023257241266545</v>
+        <v>0.01352306045610116</v>
       </c>
       <c r="E90">
-        <v>-0.05320405923599325</v>
+        <v>0.005960520025167709</v>
       </c>
       <c r="F90">
-        <v>0.06063023219212667</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.04031130200217521</v>
+      </c>
+      <c r="G90">
+        <v>0.003524152338058069</v>
+      </c>
+      <c r="H90">
+        <v>-0.008681284130802994</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2463273981208763</v>
+        <v>0.2142786762446461</v>
       </c>
       <c r="C91">
-        <v>-0.02011897890519057</v>
+        <v>0.1303630730793337</v>
       </c>
       <c r="D91">
-        <v>0.1882062115395393</v>
+        <v>0.02761092098032567</v>
       </c>
       <c r="E91">
-        <v>-0.2399580844118113</v>
+        <v>-0.08711382004828218</v>
       </c>
       <c r="F91">
-        <v>0.04332875635390222</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.195144984108165</v>
+      </c>
+      <c r="G91">
+        <v>-0.02310248641350735</v>
+      </c>
+      <c r="H91">
+        <v>0.002413130481055826</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.2877729332876279</v>
+        <v>0.2136648115369997</v>
       </c>
       <c r="C92">
-        <v>0.1087731165986536</v>
+        <v>-0.2729555823979933</v>
       </c>
       <c r="D92">
-        <v>-0.2675307504874443</v>
+        <v>0.05760440371782889</v>
       </c>
       <c r="E92">
-        <v>-0.1449633753031318</v>
+        <v>0.0001290952273593645</v>
       </c>
       <c r="F92">
-        <v>0.2336355252995416</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.1395684433101294</v>
+      </c>
+      <c r="G92">
+        <v>0.05048072976546637</v>
+      </c>
+      <c r="H92">
+        <v>0.004994627361491579</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2000262434727318</v>
+        <v>0.203600074913684</v>
       </c>
       <c r="C93">
-        <v>0.1488318175283028</v>
+        <v>-0.3371328416169978</v>
       </c>
       <c r="D93">
-        <v>-0.3473407139800931</v>
+        <v>0.02061353551712272</v>
       </c>
       <c r="E93">
-        <v>-0.02093658056556283</v>
+        <v>0.01869530445806966</v>
       </c>
       <c r="F93">
-        <v>-0.00310674358164332</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.01054256124985252</v>
+      </c>
+      <c r="G93">
+        <v>-0.003256375434042768</v>
+      </c>
+      <c r="H93">
+        <v>-0.033572265564739</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3010750444053779</v>
+        <v>0.2883961448654048</v>
       </c>
       <c r="C94">
-        <v>0.01830684639768236</v>
+        <v>0.1469119249768533</v>
       </c>
       <c r="D94">
-        <v>0.1707366771202184</v>
+        <v>0.01645192143800073</v>
       </c>
       <c r="E94">
-        <v>-0.2405005205618587</v>
+        <v>-0.1013014241557709</v>
       </c>
       <c r="F94">
-        <v>0.125559816474576</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.3653253376275016</v>
+      </c>
+      <c r="G94">
+        <v>-0.1269961870364339</v>
+      </c>
+      <c r="H94">
+        <v>0.2195578784494838</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.08502140223759701</v>
+        <v>0.07692112959998121</v>
       </c>
       <c r="C95">
-        <v>0.07089139783939882</v>
+        <v>0.08144176611306818</v>
       </c>
       <c r="D95">
-        <v>0.05975140229353294</v>
+        <v>0.007734380706774052</v>
       </c>
       <c r="E95">
-        <v>0.01179014990042561</v>
+        <v>0.0759106193018531</v>
       </c>
       <c r="F95">
-        <v>-0.08360911100389573</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.1409520969466476</v>
+      </c>
+      <c r="G95">
+        <v>-0.0653762298112279</v>
+      </c>
+      <c r="H95">
+        <v>-0.02837080775016565</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2155804057250371</v>
+        <v>0.2162053518307724</v>
       </c>
       <c r="C98">
-        <v>0.06245781804505351</v>
+        <v>0.04344565491004045</v>
       </c>
       <c r="D98">
-        <v>0.02193704438329418</v>
+        <v>0.02059931192969501</v>
       </c>
       <c r="E98">
-        <v>0.2412638373301297</v>
+        <v>0.06895413590770295</v>
       </c>
       <c r="F98">
-        <v>-0.3564792031337778</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.2589770060721596</v>
+      </c>
+      <c r="G98">
+        <v>-0.02809357783193935</v>
+      </c>
+      <c r="H98">
+        <v>-0.04097404847079823</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.02917492024417969</v>
+        <v>0.0142474694304808</v>
       </c>
       <c r="C101">
-        <v>-0.003631078620954891</v>
+        <v>0.02013819485236935</v>
       </c>
       <c r="D101">
-        <v>0.02244975666612564</v>
+        <v>-0.008100283711820554</v>
       </c>
       <c r="E101">
-        <v>0.1191688384002287</v>
+        <v>0.03426476554798397</v>
       </c>
       <c r="F101">
-        <v>0.1711133868000442</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.02430195110640088</v>
+      </c>
+      <c r="G101">
+        <v>0.03135518653302247</v>
+      </c>
+      <c r="H101">
+        <v>0.02230075499094349</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1266862803782632</v>
+        <v>0.1249966424489076</v>
       </c>
       <c r="C102">
-        <v>-0.01058752220766747</v>
+        <v>0.07601436288624704</v>
       </c>
       <c r="D102">
-        <v>0.08256004674861672</v>
+        <v>0.001616460714854408</v>
       </c>
       <c r="E102">
-        <v>-0.1087415499244405</v>
+        <v>-0.04734978882998191</v>
       </c>
       <c r="F102">
-        <v>0.04032517965278704</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.06280120646854785</v>
+      </c>
+      <c r="G102">
+        <v>-0.01841970414024397</v>
+      </c>
+      <c r="H102">
+        <v>-0.009715760215080292</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.03159714857415113</v>
+        <v>0.006792468029665405</v>
       </c>
       <c r="C103">
-        <v>-0.01759333595346048</v>
+        <v>0.005911590364125192</v>
       </c>
       <c r="D103">
-        <v>0.02318975760825479</v>
+        <v>-0.0001249006309630301</v>
       </c>
       <c r="E103">
-        <v>-0.01389186001161505</v>
+        <v>-0.001700223645723103</v>
       </c>
       <c r="F103">
-        <v>0.001261309907151953</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.01054316447927316</v>
+      </c>
+      <c r="G103">
+        <v>0.0129522771013402</v>
+      </c>
+      <c r="H103">
+        <v>-0.004643178452546893</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.04842532912979813</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.04779881125903804</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.985401466438743</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.04473233277659317</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.03587488467937841</v>
+      </c>
+      <c r="G104">
+        <v>0.0007830768117662223</v>
+      </c>
+      <c r="H104">
+        <v>0.09848848098522828</v>
       </c>
     </row>
   </sheetData>
